--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Tgfbr3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H2">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.6110729568463</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N2">
-        <v>23.6110729568463</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O2">
-        <v>0.2464251172170327</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P2">
-        <v>0.2464251172170327</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q2">
-        <v>43.2151435885842</v>
+        <v>51.900333637852</v>
       </c>
       <c r="R2">
-        <v>43.2151435885842</v>
+        <v>467.103002740668</v>
       </c>
       <c r="S2">
-        <v>0.01643682195945823</v>
+        <v>0.01796286008448942</v>
       </c>
       <c r="T2">
-        <v>0.01643682195945823</v>
+        <v>0.01796286008448941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H3">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.3020186493574</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N3">
-        <v>62.3020186493574</v>
+        <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6502365342136619</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P3">
-        <v>0.6502365342136619</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q3">
-        <v>114.0308484375735</v>
+        <v>136.901306000368</v>
       </c>
       <c r="R3">
-        <v>114.0308484375735</v>
+        <v>1232.111754003312</v>
       </c>
       <c r="S3">
-        <v>0.04337148041200727</v>
+        <v>0.04738194983923919</v>
       </c>
       <c r="T3">
-        <v>0.04337148041200727</v>
+        <v>0.04738194983923919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H4">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>9.90130111274728</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N4">
-        <v>9.90130111274728</v>
+        <v>0.248801</v>
       </c>
       <c r="O4">
-        <v>0.1033383485693055</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P4">
-        <v>0.1033383485693055</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q4">
-        <v>18.12226619617097</v>
+        <v>0.181757589734</v>
       </c>
       <c r="R4">
-        <v>18.12226619617097</v>
+        <v>1.635818307606</v>
       </c>
       <c r="S4">
-        <v>0.006892779665484141</v>
+        <v>6.290684326747222E-05</v>
       </c>
       <c r="T4">
-        <v>0.006892779665484141</v>
+        <v>6.290684326747222E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.5563085142682</v>
+        <v>2.191602</v>
       </c>
       <c r="H5">
-        <v>16.5563085142682</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I5">
-        <v>0.6033594963466667</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J5">
-        <v>0.6033594963466667</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.6110729568463</v>
+        <v>14.948048</v>
       </c>
       <c r="N5">
-        <v>23.6110729568463</v>
+        <v>44.844144</v>
       </c>
       <c r="O5">
-        <v>0.2464251172170327</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P5">
-        <v>0.2464251172170327</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q5">
-        <v>390.912208226442</v>
+        <v>32.760171892896</v>
       </c>
       <c r="R5">
-        <v>390.912208226442</v>
+        <v>294.841547036064</v>
       </c>
       <c r="S5">
-        <v>0.1486829346112372</v>
+        <v>0.011338393085526</v>
       </c>
       <c r="T5">
-        <v>0.1486829346112372</v>
+        <v>0.011338393085526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H6">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.3020186493574</v>
+        <v>23.68145933333333</v>
       </c>
       <c r="N6">
-        <v>62.3020186493574</v>
+        <v>71.04437799999999</v>
       </c>
       <c r="O6">
-        <v>0.6502365342136619</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="P6">
-        <v>0.6502365342136619</v>
+        <v>0.2340556429375698</v>
       </c>
       <c r="Q6">
-        <v>1031.491441820452</v>
+        <v>392.9893813099515</v>
       </c>
       <c r="R6">
-        <v>1031.491441820452</v>
+        <v>3536.904431789563</v>
       </c>
       <c r="S6">
-        <v>0.3923263877893572</v>
+        <v>0.1360147955968493</v>
       </c>
       <c r="T6">
-        <v>0.3923263877893572</v>
+        <v>0.1360147955968492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H7">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.90130111274728</v>
+        <v>62.46631733333334</v>
       </c>
       <c r="N7">
-        <v>9.90130111274728</v>
+        <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.1033383485693055</v>
+        <v>0.6173856880862099</v>
       </c>
       <c r="P7">
-        <v>0.1033383485693055</v>
+        <v>0.6173856880862097</v>
       </c>
       <c r="Q7">
-        <v>163.928995915311</v>
+        <v>1036.61683412322</v>
       </c>
       <c r="R7">
-        <v>163.928995915311</v>
+        <v>9329.551507108976</v>
       </c>
       <c r="S7">
-        <v>0.06235017394607244</v>
+        <v>0.358776174398258</v>
       </c>
       <c r="T7">
-        <v>0.06235017394607244</v>
+        <v>0.3587761743982579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.05360550115793</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H8">
-        <v>9.05360550115793</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.3299394216163838</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J8">
-        <v>0.3299394216163838</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>23.6110729568463</v>
+        <v>0.08293366666666667</v>
       </c>
       <c r="N8">
-        <v>23.6110729568463</v>
+        <v>0.248801</v>
       </c>
       <c r="O8">
-        <v>0.2464251172170327</v>
+        <v>0.0008196746830341778</v>
       </c>
       <c r="P8">
-        <v>0.2464251172170327</v>
+        <v>0.0008196746830341776</v>
       </c>
       <c r="Q8">
-        <v>213.7653400103449</v>
+        <v>1.376268662093111</v>
       </c>
       <c r="R8">
-        <v>213.7653400103449</v>
+        <v>12.386417958838</v>
       </c>
       <c r="S8">
-        <v>0.08130536064633735</v>
+        <v>0.0004763306838901692</v>
       </c>
       <c r="T8">
-        <v>0.08130536064633735</v>
+        <v>0.000476330683890169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.05360550115793</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H9">
-        <v>9.05360550115793</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.3299394216163838</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J9">
-        <v>0.3299394216163838</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.3020186493574</v>
+        <v>14.948048</v>
       </c>
       <c r="N9">
-        <v>62.3020186493574</v>
+        <v>44.844144</v>
       </c>
       <c r="O9">
-        <v>0.6502365342136619</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="P9">
-        <v>0.6502365342136619</v>
+        <v>0.1477389942931862</v>
       </c>
       <c r="Q9">
-        <v>564.0578987770662</v>
+        <v>248.0600562923413</v>
       </c>
       <c r="R9">
-        <v>564.0578987770662</v>
+        <v>2232.540506631072</v>
       </c>
       <c r="S9">
-        <v>0.2145386660122976</v>
+        <v>0.0858543244600674</v>
       </c>
       <c r="T9">
-        <v>0.2145386660122976</v>
+        <v>0.08585432446006737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.770107666666666</v>
+      </c>
+      <c r="H10">
+        <v>29.310323</v>
+      </c>
+      <c r="I10">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="J10">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.68145933333333</v>
+      </c>
+      <c r="N10">
+        <v>71.04437799999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2340556429375698</v>
+      </c>
+      <c r="P10">
+        <v>0.2340556429375698</v>
+      </c>
+      <c r="Q10">
+        <v>231.3704073904549</v>
+      </c>
+      <c r="R10">
+        <v>2082.333666514094</v>
+      </c>
+      <c r="S10">
+        <v>0.08007798725623114</v>
+      </c>
+      <c r="T10">
+        <v>0.08007798725623111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>9.05360550115793</v>
-      </c>
-      <c r="H10">
-        <v>9.05360550115793</v>
-      </c>
-      <c r="I10">
-        <v>0.3299394216163838</v>
-      </c>
-      <c r="J10">
-        <v>0.3299394216163838</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.90130111274728</v>
-      </c>
-      <c r="N10">
-        <v>9.90130111274728</v>
-      </c>
-      <c r="O10">
-        <v>0.1033383485693055</v>
-      </c>
-      <c r="P10">
-        <v>0.1033383485693055</v>
-      </c>
-      <c r="Q10">
-        <v>89.64247422298992</v>
-      </c>
-      <c r="R10">
-        <v>89.64247422298992</v>
-      </c>
-      <c r="S10">
-        <v>0.03409539495774891</v>
-      </c>
-      <c r="T10">
-        <v>0.03409539495774891</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.770107666666666</v>
+      </c>
+      <c r="H11">
+        <v>29.310323</v>
+      </c>
+      <c r="I11">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="J11">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>62.46631733333334</v>
+      </c>
+      <c r="N11">
+        <v>187.398952</v>
+      </c>
+      <c r="O11">
+        <v>0.6173856880862099</v>
+      </c>
+      <c r="P11">
+        <v>0.6173856880862097</v>
+      </c>
+      <c r="Q11">
+        <v>610.3026458868329</v>
+      </c>
+      <c r="R11">
+        <v>5492.723812981496</v>
+      </c>
+      <c r="S11">
+        <v>0.2112275638487126</v>
+      </c>
+      <c r="T11">
+        <v>0.2112275638487126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.770107666666666</v>
+      </c>
+      <c r="H12">
+        <v>29.310323</v>
+      </c>
+      <c r="I12">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="J12">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.08293366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.248801</v>
+      </c>
+      <c r="O12">
+        <v>0.0008196746830341778</v>
+      </c>
+      <c r="P12">
+        <v>0.0008196746830341776</v>
+      </c>
+      <c r="Q12">
+        <v>0.8102708525247778</v>
+      </c>
+      <c r="R12">
+        <v>7.292437672722999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002804371558765363</v>
+      </c>
+      <c r="T12">
+        <v>0.0002804371558765362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.770107666666666</v>
+      </c>
+      <c r="H13">
+        <v>29.310323</v>
+      </c>
+      <c r="I13">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="J13">
+        <v>0.342132265008413</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.948048</v>
+      </c>
+      <c r="N13">
+        <v>44.844144</v>
+      </c>
+      <c r="O13">
+        <v>0.1477389942931862</v>
+      </c>
+      <c r="P13">
+        <v>0.1477389942931862</v>
+      </c>
+      <c r="Q13">
+        <v>146.0440383665013</v>
+      </c>
+      <c r="R13">
+        <v>1314.396345298512</v>
+      </c>
+      <c r="S13">
+        <v>0.05054627674759281</v>
+      </c>
+      <c r="T13">
+        <v>0.05054627674759279</v>
       </c>
     </row>
   </sheetData>
